--- a/va_facility_data_2025-02-20/St. Cloud VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''St.%20Cloud%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. Cloud VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''St.%20Cloud%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R0602250d00cd42198a2c0b0c7acf7a73"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R8df8b36130684434b77a6c17cf642248"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rad067d7e140044d290f46a1b493a967e"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R27cddca5bf8f45f8a9389e97f899b158"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra9f6c67d91804e3a8ffbd126018814b2"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R77eb602c4f2f4a24b227a55a7307c6a8"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3a9cd220e3f34124a8e447024a1d6c15"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Re19db343317249b39942d9bd3ebb09bd"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc7ebebe0de184d68aec5786a7c4795f2"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R6378e812a3584cf89b7b20b822a2d6bb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf95adee044aa4b35993daa46fcc38e9b"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf340c8fa96794967a0e8f564fb7a8a48"/>
   </x:sheets>
 </x:workbook>
 </file>
